--- a/Resultados/Escenario 5/objective_value.xlsx
+++ b/Resultados/Escenario 5/objective_value.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>902403.6129645084</v>
+        <v>710481.0849224012</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1101043.377344019</v>
+        <v>1109250.1546293</v>
       </c>
     </row>
     <row r="4">
@@ -489,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1069940.378508418</v>
+        <v>1009180.791481131</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>985103.1409879611</v>
+        <v>977569.4801388087</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>936819.1026973038</v>
+        <v>928603.0620958654</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1046176.430679152</v>
+        <v>1059341.84873195</v>
       </c>
     </row>
     <row r="8">
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>613727.1705608832</v>
+        <v>603399.9152385821</v>
       </c>
     </row>
     <row r="9">
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>850055.4523299687</v>
+        <v>1010856.347565954</v>
       </c>
     </row>
     <row r="10">
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>891979.4843006501</v>
+        <v>1109214.744833225</v>
       </c>
     </row>
     <row r="11">
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>707470.1654352287</v>
+        <v>909028.7498084167</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>536841.3732238949</v>
+        <v>763129.2058648458</v>
       </c>
     </row>
     <row r="13">
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>661109.4387992492</v>
+        <v>903004.3140168679</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>846183.5865275383</v>
+        <v>1199471.957119092</v>
       </c>
     </row>
     <row r="15">
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>643480.2600070097</v>
+        <v>916955.4414568937</v>
       </c>
     </row>
     <row r="16">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>688132.9606530677</v>
+        <v>966756.2842890265</v>
       </c>
     </row>
     <row r="17">
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>870070.1234158308</v>
+        <v>1223823.329375463</v>
       </c>
     </row>
     <row r="18">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>665104.805896502</v>
+        <v>888749.191351359</v>
       </c>
     </row>
     <row r="19">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>649344.0632404655</v>
+        <v>933976.2451420501</v>
       </c>
     </row>
     <row r="20">
@@ -713,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>596735.8763607581</v>
+        <v>901461.1052890017</v>
       </c>
     </row>
     <row r="21">
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>648430.2691075196</v>
+        <v>1029265.058506037</v>
       </c>
     </row>
     <row r="22">
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>631360.2903598866</v>
+        <v>959903.4198786439</v>
       </c>
     </row>
     <row r="23">
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>645138.9734083593</v>
+        <v>862468.8437470797</v>
       </c>
     </row>
     <row r="24">
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>637926.5978376138</v>
+        <v>1045084.757381208</v>
       </c>
     </row>
     <row r="25">
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>669193.8080505059</v>
+        <v>1082351.728983049</v>
       </c>
     </row>
     <row r="26">
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>481882.8710143652</v>
+        <v>716646.8437313185</v>
       </c>
     </row>
     <row r="27">
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>656761.6927810789</v>
+        <v>1030897.240266493</v>
       </c>
     </row>
     <row r="28">
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>484289.2681958297</v>
+        <v>772624.7971509749</v>
       </c>
     </row>
     <row r="29">
@@ -839,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>671306.65952993</v>
+        <v>1074363.961570401</v>
       </c>
     </row>
     <row r="30">
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>621370.2385703643</v>
+        <v>969627.3484850061</v>
       </c>
     </row>
     <row r="31">
@@ -867,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>655290.7993454174</v>
+        <v>1019418.853571682</v>
       </c>
     </row>
     <row r="32">
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>752503.4456918717</v>
+        <v>1068617.111117131</v>
       </c>
     </row>
     <row r="33">
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>468505.0284591903</v>
+        <v>757043.9002765296</v>
       </c>
     </row>
     <row r="34">
@@ -909,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>508773.7618862369</v>
+        <v>822850.2032887044</v>
       </c>
     </row>
     <row r="35">
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>736029.9960374165</v>
+        <v>1172983.454064176</v>
       </c>
     </row>
     <row r="36">
@@ -937,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>602198.9030789073</v>
+        <v>969146.7611108394</v>
       </c>
     </row>
     <row r="37">
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>746976.361767452</v>
+        <v>1199214.125330695</v>
       </c>
     </row>
     <row r="38">
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>586011.32363087</v>
+        <v>831173.6183623874</v>
       </c>
     </row>
     <row r="39">
@@ -979,7 +979,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>627303.2358290544</v>
+        <v>964697.9364341197</v>
       </c>
     </row>
     <row r="40">
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>593925.4793207869</v>
+        <v>946099.2178603106</v>
       </c>
     </row>
     <row r="41">
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>684613.5429832384</v>
+        <v>1067575.086100002</v>
       </c>
     </row>
     <row r="42">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>488160.9647848919</v>
+        <v>751331.1709218156</v>
       </c>
     </row>
     <row r="43">
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>669769.959566701</v>
+        <v>1076929.111583726</v>
       </c>
     </row>
     <row r="44">
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>611749.5080487005</v>
+        <v>974016.3514321342</v>
       </c>
     </row>
     <row r="45">
@@ -1063,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>615390.3992727232</v>
+        <v>952140.9392753224</v>
       </c>
     </row>
     <row r="46">
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>703521.3163904115</v>
+        <v>1091465.105039705</v>
       </c>
     </row>
     <row r="47">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>694471.6279645418</v>
+        <v>1067885.037543444</v>
       </c>
     </row>
     <row r="48">
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>512688.7847143806</v>
+        <v>826634.6288716861</v>
       </c>
     </row>
     <row r="49">
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>616091.7573493945</v>
+        <v>998553.9246276964</v>
       </c>
     </row>
     <row r="50">
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>502963.420620698</v>
+        <v>762882.803765456</v>
       </c>
     </row>
     <row r="51">
@@ -1147,7 +1147,2107 @@
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>745906.9653080056</v>
+        <v>1204733.549354537</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>51</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>808592.0200187173</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>52</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>967697.7169748273</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>53</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1073581.082401947</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>54</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>911438.3703798193</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>55</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>997692.095410011</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>56</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>995137.0540009667</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>57</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>801802.5163889204</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>58</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1164554.709204183</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>59</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>958075.8617358921</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>60</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>927576.8634659154</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>61</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1021999.99221928</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>62</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>722392.638428397</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>63</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1016669.522014509</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>64</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>971257.7076449899</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>65</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1153008.530021447</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>66</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>861921.4531888617</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>67</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>923808.6573545374</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>68</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1066522.01677591</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>69</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>847197.9962718498</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>70</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1060548.773609392</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>71</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>667899.3064017455</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>72</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>931708.9681938562</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>73</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>898685.9797198137</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>74</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1087806.093639428</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>75</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>969238.2230518737</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>76</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>843567.6643658155</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>77</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1081628.713542948</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>78</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1059843.825053494</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>79</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>858887.0798505401</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>80</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1163288.481551719</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>81</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1005548.420827007</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>82</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>786545.1800888749</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>83</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>952806.2039232468</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>84</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1031280.393598959</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>85</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>735811.5727148599</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>86</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>956141.5175541088</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>87</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1056935.822317414</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>88</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>874765.8682289163</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>89</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>864116.0829990855</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>90</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>942929.3334790228</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>91</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>971594.062338518</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>92</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1337350.978134396</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>93</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1085617.664374758</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>94</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="n">
+        <v>950351.8988788889</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>95</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1107744.332833393</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>96</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>894810.2168998572</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>97</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>984303.5414922137</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>98</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>948045.0079530589</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>99</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>898154.1015901517</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>100</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>891882.35993917</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>101</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1009591.520222546</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>102</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1068947.304677021</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>103</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>965476.2401838279</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>104</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1076272.271678247</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>105</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>990289.8300310629</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>106</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" t="n">
+        <v>804453.8421849287</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>107</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1014371.738157621</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>108</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>871226.3980415117</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>109</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1054852.011211748</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>110</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>857155.4998173714</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>111</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>936150.592595977</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>112</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>599739.9681623005</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>113</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1190198.394311338</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>114</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1043114.566854631</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>115</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>893028.2357948347</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>116</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>921197.3967799458</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>117</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>740527.0021316924</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>118</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1150156.003850557</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>119</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>779781.1437645177</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>120</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>943501.6918160344</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>121</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1162522.725592972</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>122</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1211220.738391779</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>123</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>816482.6488712654</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>124</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>943013.3974525761</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>125</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1179028.441652927</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>126</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>749796.1521337365</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>127</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1061419.578369515</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>128</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>875669.0948130378</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>129</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>715007.6350529324</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>130</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1240180.104084846</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>131</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>981575.7895528546</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>132</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>615792.7941332026</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>133</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1022761.661772349</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>134</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1268380.488545095</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>135</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>925762.2012812161</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>136</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>793521.0393609314</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>137</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1064607.558074402</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>138</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1034439.9031962</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>139</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1060337.679604028</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>140</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>825604.3506761028</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>141</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>862173.7788457829</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>142</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1064842.870435063</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>143</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>948028.4041885851</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>144</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>938352.470863495</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>145</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>896854.4309359223</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>146</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>939143.9858622949</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>147</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1030821.63232887</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>148</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>930709.0125427397</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>149</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1005263.593322573</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>150</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>896003.1023267166</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>151</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" t="n">
+        <v>997140.669736031</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>152</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1208372.762141326</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>153</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1</v>
+      </c>
+      <c r="D154" t="n">
+        <v>776057.5715428113</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>154</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" t="n">
+        <v>927981.5588064196</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>155</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>954024.1061672345</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>156</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1112351.899872351</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>157</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1083876.639963954</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>158</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1054739.129017927</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>159</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>952548.5175622117</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>160</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>961838.013729482</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>161</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1022350.714568689</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>162</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" t="n">
+        <v>994293.2641986344</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>163</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1</v>
+      </c>
+      <c r="D164" t="n">
+        <v>859244.3637941215</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>164</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1</v>
+      </c>
+      <c r="D165" t="n">
+        <v>819688.1406348532</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>165</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1036534.917768589</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>166</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1</v>
+      </c>
+      <c r="D167" t="n">
+        <v>969595.7427553309</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>167</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1036071.774532589</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>168</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1</v>
+      </c>
+      <c r="D169" t="n">
+        <v>933247.6230976735</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>169</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+      <c r="D170" t="n">
+        <v>891998.0487541717</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>170</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1</v>
+      </c>
+      <c r="D171" t="n">
+        <v>914151.0756255887</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>171</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1048040.06322519</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>172</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1</v>
+      </c>
+      <c r="D173" t="n">
+        <v>863570.5858490479</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>173</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1</v>
+      </c>
+      <c r="D174" t="n">
+        <v>786129.5937022986</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>174</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1</v>
+      </c>
+      <c r="D175" t="n">
+        <v>883539.8920987609</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>175</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1</v>
+      </c>
+      <c r="D176" t="n">
+        <v>915916.531885392</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>176</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1</v>
+      </c>
+      <c r="D177" t="n">
+        <v>974615.8265360091</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>177</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1047705.788669084</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>178</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1289712.697106123</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>179</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1</v>
+      </c>
+      <c r="D180" t="n">
+        <v>971956.6208016688</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>180</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1095545.204526742</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>181</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1</v>
+      </c>
+      <c r="D182" t="n">
+        <v>892320.4045495491</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>182</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1</v>
+      </c>
+      <c r="D183" t="n">
+        <v>804560.4950970553</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>183</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1</v>
+      </c>
+      <c r="D184" t="n">
+        <v>801189.8316441653</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>184</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1013460.79537099</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>185</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+      <c r="D186" t="n">
+        <v>973165.3140945276</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>186</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1047813.594222035</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>187</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1</v>
+      </c>
+      <c r="D188" t="n">
+        <v>974160.4209857669</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>188</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1</v>
+      </c>
+      <c r="D189" t="n">
+        <v>857464.4801376918</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>189</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1</v>
+      </c>
+      <c r="D190" t="n">
+        <v>779833.7064705351</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>190</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1233500.14477914</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>191</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1226750.222560561</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>192</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+      <c r="D193" t="n">
+        <v>890047.1328513236</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>193</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D194" t="n">
+        <v>981392.2103366896</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>194</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
+      <c r="D195" t="n">
+        <v>761184.3022330503</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>195</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1</v>
+      </c>
+      <c r="D196" t="n">
+        <v>853680.3724238554</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>196</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1162062.037177894</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>197</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1</v>
+      </c>
+      <c r="D198" t="n">
+        <v>870874.5053857809</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>198</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1</v>
+      </c>
+      <c r="D199" t="n">
+        <v>927655.6902499513</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>199</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+      <c r="D200" t="n">
+        <v>857029.5883056937</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>200</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+      <c r="D201" t="n">
+        <v>807600.2226771177</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/Escenario 5/objective_value.xlsx
+++ b/Resultados/Escenario 5/objective_value.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>710481.0849224012</v>
+        <v>1381372.420472553</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1109250.1546293</v>
+        <v>1331175.398185599</v>
       </c>
     </row>
     <row r="4">
@@ -489,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1009180.791481131</v>
+        <v>1304983.662428365</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>977569.4801388087</v>
+        <v>1296398.823928755</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>928603.0620958654</v>
+        <v>1301345.480533996</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1059341.84873195</v>
+        <v>1256870.135244087</v>
       </c>
     </row>
     <row r="8">
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>603399.9152385821</v>
+        <v>1262092.408059028</v>
       </c>
     </row>
     <row r="9">
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1010856.347565954</v>
+        <v>1247202.0759675</v>
       </c>
     </row>
     <row r="10">
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1109214.744833225</v>
+        <v>1201081.857238743</v>
       </c>
     </row>
     <row r="11">
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>909028.7498084167</v>
+        <v>1160161.396475241</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>763129.2058648458</v>
+        <v>1161208.289735802</v>
       </c>
     </row>
     <row r="13">
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>903004.3140168679</v>
+        <v>1139561.870749052</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1199471.957119092</v>
+        <v>1125166.791264905</v>
       </c>
     </row>
     <row r="15">
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>916955.4414568937</v>
+        <v>1106303.94116646</v>
       </c>
     </row>
     <row r="16">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>966756.2842890265</v>
+        <v>1087307.409048395</v>
       </c>
     </row>
     <row r="17">
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1223823.329375463</v>
+        <v>1071959.553167581</v>
       </c>
     </row>
     <row r="18">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>888749.191351359</v>
+        <v>1057881.165404926</v>
       </c>
     </row>
     <row r="19">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>933976.2451420501</v>
+        <v>1052239.065325873</v>
       </c>
     </row>
     <row r="20">
@@ -713,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>901461.1052890017</v>
+        <v>1043822.338174355</v>
       </c>
     </row>
     <row r="21">
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1029265.058506037</v>
+        <v>1037714.254760547</v>
       </c>
     </row>
     <row r="22">
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>959903.4198786439</v>
+        <v>1033018.848612246</v>
       </c>
     </row>
     <row r="23">
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>862468.8437470797</v>
+        <v>1029145.787170681</v>
       </c>
     </row>
     <row r="24">
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1045084.757381208</v>
+        <v>1024224.836825895</v>
       </c>
     </row>
     <row r="25">
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1082351.728983049</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="26">
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>716646.8437313185</v>
+        <v>1021026.680022619</v>
       </c>
     </row>
     <row r="27">
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1030897.240266493</v>
+        <v>1021026.636777087</v>
       </c>
     </row>
     <row r="28">
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>772624.7971509749</v>
+        <v>1021026.678955722</v>
       </c>
     </row>
     <row r="29">
@@ -839,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1074363.961570401</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="30">
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>969627.3484850061</v>
+        <v>1021026.67405806</v>
       </c>
     </row>
     <row r="31">
@@ -867,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>1019418.853571682</v>
+        <v>1021026.680022619</v>
       </c>
     </row>
     <row r="32">
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>1068617.111117131</v>
+        <v>1021026.675216346</v>
       </c>
     </row>
     <row r="33">
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>757043.9002765296</v>
+        <v>1021026.675325921</v>
       </c>
     </row>
     <row r="34">
@@ -909,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>822850.2032887044</v>
+        <v>1021026.636777087</v>
       </c>
     </row>
     <row r="35">
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>1172983.454064176</v>
+        <v>1021026.687943932</v>
       </c>
     </row>
     <row r="36">
@@ -937,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>969146.7611108394</v>
+        <v>1021026.680967663</v>
       </c>
     </row>
     <row r="37">
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>1199214.125330695</v>
+        <v>1021026.636777087</v>
       </c>
     </row>
     <row r="38">
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>831173.6183623874</v>
+        <v>1021026.636777087</v>
       </c>
     </row>
     <row r="39">
@@ -979,7 +979,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>964697.9364341197</v>
+        <v>1021026.678955722</v>
       </c>
     </row>
     <row r="40">
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>946099.2178603106</v>
+        <v>1021026.690114717</v>
       </c>
     </row>
     <row r="41">
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>1067575.086100002</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="42">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>751331.1709218156</v>
+        <v>1021026.687229849</v>
       </c>
     </row>
     <row r="43">
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1076929.111583726</v>
+        <v>1021026.678758435</v>
       </c>
     </row>
     <row r="44">
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>974016.3514321342</v>
+        <v>1021026.675325921</v>
       </c>
     </row>
     <row r="45">
@@ -1063,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>952140.9392753224</v>
+        <v>1021026.670736702</v>
       </c>
     </row>
     <row r="46">
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>1091465.105039705</v>
+        <v>1021026.678955722</v>
       </c>
     </row>
     <row r="47">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>1067885.037543444</v>
+        <v>1021026.687943932</v>
       </c>
     </row>
     <row r="48">
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>826634.6288716861</v>
+        <v>1021026.678955722</v>
       </c>
     </row>
     <row r="49">
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>998553.9246276964</v>
+        <v>1021026.67405806</v>
       </c>
     </row>
     <row r="50">
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>762882.803765456</v>
+        <v>1021026.659157655</v>
       </c>
     </row>
     <row r="51">
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>1204733.549354537</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="52">
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>808592.0200187173</v>
+        <v>1021026.659157655</v>
       </c>
     </row>
     <row r="53">
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>967697.7169748273</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="54">
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>1073581.082401947</v>
+        <v>1021026.662915119</v>
       </c>
     </row>
     <row r="55">
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>911438.3703798193</v>
+        <v>1021026.687229849</v>
       </c>
     </row>
     <row r="56">
@@ -1217,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>997692.095410011</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="57">
@@ -1231,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>995137.0540009667</v>
+        <v>1021026.677651484</v>
       </c>
     </row>
     <row r="58">
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>801802.5163889204</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="59">
@@ -1259,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>1164554.709204183</v>
+        <v>1021026.659157655</v>
       </c>
     </row>
     <row r="60">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>958075.8617358921</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="61">
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>927576.8634659154</v>
+        <v>1021026.662915119</v>
       </c>
     </row>
     <row r="62">
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>1021999.99221928</v>
+        <v>1021026.687229849</v>
       </c>
     </row>
     <row r="63">
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>722392.638428397</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="64">
@@ -1329,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>1016669.522014509</v>
+        <v>1021026.677651484</v>
       </c>
     </row>
     <row r="65">
@@ -1343,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>971257.7076449899</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="66">
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>1153008.530021447</v>
+        <v>1021026.659157655</v>
       </c>
     </row>
     <row r="67">
@@ -1371,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>861921.4531888617</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="68">
@@ -1385,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>923808.6573545374</v>
+        <v>1021026.662915119</v>
       </c>
     </row>
     <row r="69">
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>1066522.01677591</v>
+        <v>1021026.687229849</v>
       </c>
     </row>
     <row r="70">
@@ -1413,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>847197.9962718498</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="71">
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>1060548.773609392</v>
+        <v>1021026.677651484</v>
       </c>
     </row>
     <row r="72">
@@ -1441,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>667899.3064017455</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="73">
@@ -1455,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>931708.9681938562</v>
+        <v>1021026.659157655</v>
       </c>
     </row>
     <row r="74">
@@ -1469,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>898685.9797198137</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="75">
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>1087806.093639428</v>
+        <v>1021026.662915119</v>
       </c>
     </row>
     <row r="76">
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>969238.2230518737</v>
+        <v>1021026.687229849</v>
       </c>
     </row>
     <row r="77">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>843567.6643658155</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="78">
@@ -1525,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>1081628.713542948</v>
+        <v>1021026.677651484</v>
       </c>
     </row>
     <row r="79">
@@ -1539,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>1059843.825053494</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="80">
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>858887.0798505401</v>
+        <v>1021026.659157655</v>
       </c>
     </row>
     <row r="81">
@@ -1567,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>1163288.481551719</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="82">
@@ -1581,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>1005548.420827007</v>
+        <v>1021026.662915119</v>
       </c>
     </row>
     <row r="83">
@@ -1595,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>786545.1800888749</v>
+        <v>1021026.687229849</v>
       </c>
     </row>
     <row r="84">
@@ -1609,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>952806.2039232468</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="85">
@@ -1623,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>1031280.393598959</v>
+        <v>1021026.677651484</v>
       </c>
     </row>
     <row r="86">
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>735811.5727148599</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="87">
@@ -1651,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>956141.5175541088</v>
+        <v>1021026.659157655</v>
       </c>
     </row>
     <row r="88">
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>1056935.822317414</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="89">
@@ -1679,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>874765.8682289163</v>
+        <v>1021026.662915119</v>
       </c>
     </row>
     <row r="90">
@@ -1693,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>864116.0829990855</v>
+        <v>1021026.687229849</v>
       </c>
     </row>
     <row r="91">
@@ -1707,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>942929.3334790228</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="92">
@@ -1721,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>971594.062338518</v>
+        <v>1021026.677651484</v>
       </c>
     </row>
     <row r="93">
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>1337350.978134396</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="94">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>1085617.664374758</v>
+        <v>1021026.659157655</v>
       </c>
     </row>
     <row r="95">
@@ -1763,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>950351.8988788889</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="96">
@@ -1777,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>1107744.332833393</v>
+        <v>1021026.662915119</v>
       </c>
     </row>
     <row r="97">
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>894810.2168998572</v>
+        <v>1021026.687229849</v>
       </c>
     </row>
     <row r="98">
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>984303.5414922137</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="99">
@@ -1819,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>948045.0079530589</v>
+        <v>1021026.677651484</v>
       </c>
     </row>
     <row r="100">
@@ -1833,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>898154.1015901517</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="101">
@@ -1847,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>891882.35993917</v>
+        <v>1021026.659157655</v>
       </c>
     </row>
     <row r="102">
@@ -1861,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>1009591.520222546</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="103">
@@ -1875,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>1068947.304677021</v>
+        <v>1021026.662915119</v>
       </c>
     </row>
     <row r="104">
@@ -1889,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>965476.2401838279</v>
+        <v>1021026.687229849</v>
       </c>
     </row>
     <row r="105">
@@ -1903,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>1076272.271678247</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="106">
@@ -1917,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>990289.8300310629</v>
+        <v>1021026.677651484</v>
       </c>
     </row>
     <row r="107">
@@ -1931,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>804453.8421849287</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="108">
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>1014371.738157621</v>
+        <v>1021026.659157655</v>
       </c>
     </row>
     <row r="109">
@@ -1959,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>871226.3980415117</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="110">
@@ -1973,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>1054852.011211748</v>
+        <v>1021026.662915119</v>
       </c>
     </row>
     <row r="111">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>857155.4998173714</v>
+        <v>1021026.687229849</v>
       </c>
     </row>
     <row r="112">
@@ -2001,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>936150.592595977</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="113">
@@ -2015,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>599739.9681623005</v>
+        <v>1021026.677651484</v>
       </c>
     </row>
     <row r="114">
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>1190198.394311338</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="115">
@@ -2043,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>1043114.566854631</v>
+        <v>1021026.659157655</v>
       </c>
     </row>
     <row r="116">
@@ -2057,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="D116" t="n">
-        <v>893028.2357948347</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="117">
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>921197.3967799458</v>
+        <v>1021026.662915119</v>
       </c>
     </row>
     <row r="118">
@@ -2085,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>740527.0021316924</v>
+        <v>1021026.687229849</v>
       </c>
     </row>
     <row r="119">
@@ -2099,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>1150156.003850557</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="120">
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>779781.1437645177</v>
+        <v>1021026.677651484</v>
       </c>
     </row>
     <row r="121">
@@ -2127,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>943501.6918160344</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="122">
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>1162522.725592972</v>
+        <v>1021026.659157655</v>
       </c>
     </row>
     <row r="123">
@@ -2155,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>1211220.738391779</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="124">
@@ -2169,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>816482.6488712654</v>
+        <v>1021026.662915119</v>
       </c>
     </row>
     <row r="125">
@@ -2183,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>943013.3974525761</v>
+        <v>1021026.687229849</v>
       </c>
     </row>
     <row r="126">
@@ -2197,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>1179028.441652927</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="127">
@@ -2211,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>749796.1521337365</v>
+        <v>1021026.677651484</v>
       </c>
     </row>
     <row r="128">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>1061419.578369515</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="129">
@@ -2239,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>875669.0948130378</v>
+        <v>1021026.659157655</v>
       </c>
     </row>
     <row r="130">
@@ -2253,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>715007.6350529324</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="131">
@@ -2267,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>1240180.104084846</v>
+        <v>1021026.662915119</v>
       </c>
     </row>
     <row r="132">
@@ -2281,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>981575.7895528546</v>
+        <v>1021026.687229849</v>
       </c>
     </row>
     <row r="133">
@@ -2295,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>615792.7941332026</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="134">
@@ -2309,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>1022761.661772349</v>
+        <v>1021026.677651484</v>
       </c>
     </row>
     <row r="135">
@@ -2323,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>1268380.488545095</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="136">
@@ -2337,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>925762.2012812161</v>
+        <v>1021026.659157655</v>
       </c>
     </row>
     <row r="137">
@@ -2351,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>793521.0393609314</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="138">
@@ -2365,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>1064607.558074402</v>
+        <v>1021026.662915119</v>
       </c>
     </row>
     <row r="139">
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>1034439.9031962</v>
+        <v>1021026.687229849</v>
       </c>
     </row>
     <row r="140">
@@ -2393,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>1060337.679604028</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="141">
@@ -2407,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>825604.3506761028</v>
+        <v>1021026.677651484</v>
       </c>
     </row>
     <row r="142">
@@ -2421,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>862173.7788457829</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="143">
@@ -2435,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>1064842.870435063</v>
+        <v>1021026.659157655</v>
       </c>
     </row>
     <row r="144">
@@ -2449,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>948028.4041885851</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="145">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>938352.470863495</v>
+        <v>1021026.662915119</v>
       </c>
     </row>
     <row r="146">
@@ -2477,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>896854.4309359223</v>
+        <v>1021026.687229849</v>
       </c>
     </row>
     <row r="147">
@@ -2491,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>939143.9858622949</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="148">
@@ -2505,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>1030821.63232887</v>
+        <v>1021026.677651484</v>
       </c>
     </row>
     <row r="149">
@@ -2519,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>930709.0125427397</v>
+        <v>1021026.685004374</v>
       </c>
     </row>
     <row r="150">
@@ -2533,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>1005263.593322573</v>
+        <v>1021026.672685405</v>
       </c>
     </row>
     <row r="151">
@@ -2547,707 +2547,7 @@
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>896003.1023267166</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>151</v>
-      </c>
-      <c r="C152" t="n">
-        <v>1</v>
-      </c>
-      <c r="D152" t="n">
-        <v>997140.669736031</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>152</v>
-      </c>
-      <c r="C153" t="n">
-        <v>1</v>
-      </c>
-      <c r="D153" t="n">
-        <v>1208372.762141326</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>153</v>
-      </c>
-      <c r="C154" t="n">
-        <v>1</v>
-      </c>
-      <c r="D154" t="n">
-        <v>776057.5715428113</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>154</v>
-      </c>
-      <c r="C155" t="n">
-        <v>1</v>
-      </c>
-      <c r="D155" t="n">
-        <v>927981.5588064196</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>155</v>
-      </c>
-      <c r="C156" t="n">
-        <v>1</v>
-      </c>
-      <c r="D156" t="n">
-        <v>954024.1061672345</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>156</v>
-      </c>
-      <c r="C157" t="n">
-        <v>1</v>
-      </c>
-      <c r="D157" t="n">
-        <v>1112351.899872351</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>157</v>
-      </c>
-      <c r="C158" t="n">
-        <v>1</v>
-      </c>
-      <c r="D158" t="n">
-        <v>1083876.639963954</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>158</v>
-      </c>
-      <c r="C159" t="n">
-        <v>1</v>
-      </c>
-      <c r="D159" t="n">
-        <v>1054739.129017927</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>159</v>
-      </c>
-      <c r="C160" t="n">
-        <v>1</v>
-      </c>
-      <c r="D160" t="n">
-        <v>952548.5175622117</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>160</v>
-      </c>
-      <c r="C161" t="n">
-        <v>1</v>
-      </c>
-      <c r="D161" t="n">
-        <v>961838.013729482</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>161</v>
-      </c>
-      <c r="C162" t="n">
-        <v>1</v>
-      </c>
-      <c r="D162" t="n">
-        <v>1022350.714568689</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>162</v>
-      </c>
-      <c r="C163" t="n">
-        <v>1</v>
-      </c>
-      <c r="D163" t="n">
-        <v>994293.2641986344</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>163</v>
-      </c>
-      <c r="C164" t="n">
-        <v>1</v>
-      </c>
-      <c r="D164" t="n">
-        <v>859244.3637941215</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>164</v>
-      </c>
-      <c r="C165" t="n">
-        <v>1</v>
-      </c>
-      <c r="D165" t="n">
-        <v>819688.1406348532</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>165</v>
-      </c>
-      <c r="C166" t="n">
-        <v>1</v>
-      </c>
-      <c r="D166" t="n">
-        <v>1036534.917768589</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>166</v>
-      </c>
-      <c r="C167" t="n">
-        <v>1</v>
-      </c>
-      <c r="D167" t="n">
-        <v>969595.7427553309</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>167</v>
-      </c>
-      <c r="C168" t="n">
-        <v>1</v>
-      </c>
-      <c r="D168" t="n">
-        <v>1036071.774532589</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>168</v>
-      </c>
-      <c r="C169" t="n">
-        <v>1</v>
-      </c>
-      <c r="D169" t="n">
-        <v>933247.6230976735</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>169</v>
-      </c>
-      <c r="C170" t="n">
-        <v>1</v>
-      </c>
-      <c r="D170" t="n">
-        <v>891998.0487541717</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>170</v>
-      </c>
-      <c r="C171" t="n">
-        <v>1</v>
-      </c>
-      <c r="D171" t="n">
-        <v>914151.0756255887</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>171</v>
-      </c>
-      <c r="C172" t="n">
-        <v>1</v>
-      </c>
-      <c r="D172" t="n">
-        <v>1048040.06322519</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>172</v>
-      </c>
-      <c r="C173" t="n">
-        <v>1</v>
-      </c>
-      <c r="D173" t="n">
-        <v>863570.5858490479</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>173</v>
-      </c>
-      <c r="C174" t="n">
-        <v>1</v>
-      </c>
-      <c r="D174" t="n">
-        <v>786129.5937022986</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>174</v>
-      </c>
-      <c r="C175" t="n">
-        <v>1</v>
-      </c>
-      <c r="D175" t="n">
-        <v>883539.8920987609</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>175</v>
-      </c>
-      <c r="C176" t="n">
-        <v>1</v>
-      </c>
-      <c r="D176" t="n">
-        <v>915916.531885392</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>176</v>
-      </c>
-      <c r="C177" t="n">
-        <v>1</v>
-      </c>
-      <c r="D177" t="n">
-        <v>974615.8265360091</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>177</v>
-      </c>
-      <c r="C178" t="n">
-        <v>1</v>
-      </c>
-      <c r="D178" t="n">
-        <v>1047705.788669084</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>178</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1</v>
-      </c>
-      <c r="D179" t="n">
-        <v>1289712.697106123</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>179</v>
-      </c>
-      <c r="C180" t="n">
-        <v>1</v>
-      </c>
-      <c r="D180" t="n">
-        <v>971956.6208016688</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>180</v>
-      </c>
-      <c r="C181" t="n">
-        <v>1</v>
-      </c>
-      <c r="D181" t="n">
-        <v>1095545.204526742</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>181</v>
-      </c>
-      <c r="C182" t="n">
-        <v>1</v>
-      </c>
-      <c r="D182" t="n">
-        <v>892320.4045495491</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>182</v>
-      </c>
-      <c r="C183" t="n">
-        <v>1</v>
-      </c>
-      <c r="D183" t="n">
-        <v>804560.4950970553</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>183</v>
-      </c>
-      <c r="C184" t="n">
-        <v>1</v>
-      </c>
-      <c r="D184" t="n">
-        <v>801189.8316441653</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>184</v>
-      </c>
-      <c r="C185" t="n">
-        <v>1</v>
-      </c>
-      <c r="D185" t="n">
-        <v>1013460.79537099</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>185</v>
-      </c>
-      <c r="C186" t="n">
-        <v>1</v>
-      </c>
-      <c r="D186" t="n">
-        <v>973165.3140945276</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>186</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1</v>
-      </c>
-      <c r="D187" t="n">
-        <v>1047813.594222035</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>187</v>
-      </c>
-      <c r="C188" t="n">
-        <v>1</v>
-      </c>
-      <c r="D188" t="n">
-        <v>974160.4209857669</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>188</v>
-      </c>
-      <c r="C189" t="n">
-        <v>1</v>
-      </c>
-      <c r="D189" t="n">
-        <v>857464.4801376918</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>189</v>
-      </c>
-      <c r="C190" t="n">
-        <v>1</v>
-      </c>
-      <c r="D190" t="n">
-        <v>779833.7064705351</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>190</v>
-      </c>
-      <c r="C191" t="n">
-        <v>1</v>
-      </c>
-      <c r="D191" t="n">
-        <v>1233500.14477914</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>191</v>
-      </c>
-      <c r="C192" t="n">
-        <v>1</v>
-      </c>
-      <c r="D192" t="n">
-        <v>1226750.222560561</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>192</v>
-      </c>
-      <c r="C193" t="n">
-        <v>1</v>
-      </c>
-      <c r="D193" t="n">
-        <v>890047.1328513236</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>193</v>
-      </c>
-      <c r="C194" t="n">
-        <v>1</v>
-      </c>
-      <c r="D194" t="n">
-        <v>981392.2103366896</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>194</v>
-      </c>
-      <c r="C195" t="n">
-        <v>1</v>
-      </c>
-      <c r="D195" t="n">
-        <v>761184.3022330503</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>195</v>
-      </c>
-      <c r="C196" t="n">
-        <v>1</v>
-      </c>
-      <c r="D196" t="n">
-        <v>853680.3724238554</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>196</v>
-      </c>
-      <c r="C197" t="n">
-        <v>1</v>
-      </c>
-      <c r="D197" t="n">
-        <v>1162062.037177894</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>197</v>
-      </c>
-      <c r="C198" t="n">
-        <v>1</v>
-      </c>
-      <c r="D198" t="n">
-        <v>870874.5053857809</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>198</v>
-      </c>
-      <c r="C199" t="n">
-        <v>1</v>
-      </c>
-      <c r="D199" t="n">
-        <v>927655.6902499513</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>199</v>
-      </c>
-      <c r="C200" t="n">
-        <v>1</v>
-      </c>
-      <c r="D200" t="n">
-        <v>857029.5883056937</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>200</v>
-      </c>
-      <c r="C201" t="n">
-        <v>1</v>
-      </c>
-      <c r="D201" t="n">
-        <v>807600.2226771177</v>
+        <v>1021026.688963982</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/Escenario 5/objective_value.xlsx
+++ b/Resultados/Escenario 5/objective_value.xlsx
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1381372.420472553</v>
+        <v>1371024.409479772</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1331175.398185599</v>
+        <v>1283201.053464281</v>
       </c>
     </row>
     <row r="4">
@@ -489,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1304983.662428365</v>
+        <v>1316697.18555364</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1296398.823928755</v>
+        <v>1309971.98374785</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1301345.480533996</v>
+        <v>1299068.192046911</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1256870.135244087</v>
+        <v>1287431.051450822</v>
       </c>
     </row>
     <row r="8">
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1262092.408059028</v>
+        <v>1254929.344479011</v>
       </c>
     </row>
     <row r="9">
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1247202.0759675</v>
+        <v>1241481.823595609</v>
       </c>
     </row>
     <row r="10">
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1201081.857238743</v>
+        <v>1191511.513019954</v>
       </c>
     </row>
     <row r="11">
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1160161.396475241</v>
+        <v>1180250.906035158</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1161208.289735802</v>
+        <v>1170073.347861889</v>
       </c>
     </row>
     <row r="13">
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1139561.870749052</v>
+        <v>1133276.492835885</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1125166.791264905</v>
+        <v>1121143.698848768</v>
       </c>
     </row>
     <row r="15">
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1106303.94116646</v>
+        <v>1106672.409775693</v>
       </c>
     </row>
     <row r="16">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1087307.409048395</v>
+        <v>1088218.017009318</v>
       </c>
     </row>
     <row r="17">
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1071959.553167581</v>
+        <v>1073348.398955322</v>
       </c>
     </row>
     <row r="18">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1057881.165404926</v>
+        <v>1059606.640090314</v>
       </c>
     </row>
     <row r="19">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1052239.065325873</v>
+        <v>1050287.490522854</v>
       </c>
     </row>
     <row r="20">
@@ -713,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1043822.338174355</v>
+        <v>1046530.141878414</v>
       </c>
     </row>
     <row r="21">
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1037714.254760547</v>
+        <v>1038786.981825946</v>
       </c>
     </row>
     <row r="22">
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1033018.848612246</v>
+        <v>1035456.498880941</v>
       </c>
     </row>
     <row r="23">
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>1029145.787170681</v>
+        <v>1030190.53019257</v>
       </c>
     </row>
     <row r="24">
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1024224.836825895</v>
+        <v>1025610.470297321</v>
       </c>
     </row>
     <row r="25">
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1021026.67311727</v>
+        <v>1021026.659157655</v>
       </c>
     </row>
     <row r="26">
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>1021026.680022619</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="27">
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1021026.636777087</v>
+        <v>1021026.680967663</v>
       </c>
     </row>
     <row r="28">
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>1021026.678955722</v>
+        <v>1021026.670736702</v>
       </c>
     </row>
     <row r="29">
@@ -839,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1021026.67311727</v>
+        <v>1021026.673416318</v>
       </c>
     </row>
     <row r="30">
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>1021026.67405806</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="31">
@@ -867,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>1021026.680022619</v>
+        <v>1021026.659157655</v>
       </c>
     </row>
     <row r="32">
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>1021026.675216346</v>
+        <v>1021026.678726009</v>
       </c>
     </row>
     <row r="33">
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>1021026.675325921</v>
+        <v>1021026.636777087</v>
       </c>
     </row>
     <row r="34">
@@ -909,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>1021026.636777087</v>
+        <v>1021026.687229849</v>
       </c>
     </row>
     <row r="35">
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>1021026.687943932</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="36">
@@ -937,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>1021026.680967663</v>
+        <v>1021026.670736702</v>
       </c>
     </row>
     <row r="37">
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>1021026.636777087</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="38">
@@ -979,7 +979,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>1021026.678955722</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="40">
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>1021026.690114717</v>
+        <v>1021026.684490843</v>
       </c>
     </row>
     <row r="41">
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.670736702</v>
       </c>
     </row>
     <row r="42">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>1021026.687229849</v>
+        <v>1021026.675216346</v>
       </c>
     </row>
     <row r="43">
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1021026.678758435</v>
+        <v>1021026.659157655</v>
       </c>
     </row>
     <row r="44">
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>1021026.675325921</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="45">
@@ -1063,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>1021026.670736702</v>
+        <v>1021026.636777087</v>
       </c>
     </row>
     <row r="46">
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>1021026.678955722</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="47">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>1021026.687943932</v>
+        <v>1021026.684490843</v>
       </c>
     </row>
     <row r="48">
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>1021026.678955722</v>
+        <v>1021026.670736702</v>
       </c>
     </row>
     <row r="49">
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>1021026.67405806</v>
+        <v>1021026.675216346</v>
       </c>
     </row>
     <row r="50">
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="52">
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>1021026.659157655</v>
+        <v>1021026.636777087</v>
       </c>
     </row>
     <row r="53">
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>1021026.67311727</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="54">
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>1021026.662915119</v>
+        <v>1021026.684490843</v>
       </c>
     </row>
     <row r="55">
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>1021026.687229849</v>
+        <v>1021026.670736702</v>
       </c>
     </row>
     <row r="56">
@@ -1217,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.675216346</v>
       </c>
     </row>
     <row r="57">
@@ -1231,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>1021026.677651484</v>
+        <v>1021026.659157655</v>
       </c>
     </row>
     <row r="58">
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="59">
@@ -1259,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>1021026.659157655</v>
+        <v>1021026.636777087</v>
       </c>
     </row>
     <row r="60">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>1021026.67311727</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="61">
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>1021026.662915119</v>
+        <v>1021026.684490843</v>
       </c>
     </row>
     <row r="62">
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>1021026.687229849</v>
+        <v>1021026.670736702</v>
       </c>
     </row>
     <row r="63">
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.675216346</v>
       </c>
     </row>
     <row r="64">
@@ -1329,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>1021026.677651484</v>
+        <v>1021026.659157655</v>
       </c>
     </row>
     <row r="65">
@@ -1343,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="66">
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>1021026.659157655</v>
+        <v>1021026.636777087</v>
       </c>
     </row>
     <row r="67">
@@ -1371,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>1021026.67311727</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="68">
@@ -1385,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>1021026.662915119</v>
+        <v>1021026.684490843</v>
       </c>
     </row>
     <row r="69">
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>1021026.687229849</v>
+        <v>1021026.670736702</v>
       </c>
     </row>
     <row r="70">
@@ -1413,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.675216346</v>
       </c>
     </row>
     <row r="71">
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>1021026.677651484</v>
+        <v>1021026.659157655</v>
       </c>
     </row>
     <row r="72">
@@ -1441,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="73">
@@ -1455,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>1021026.659157655</v>
+        <v>1021026.636777087</v>
       </c>
     </row>
     <row r="74">
@@ -1469,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>1021026.67311727</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="75">
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>1021026.662915119</v>
+        <v>1021026.684490843</v>
       </c>
     </row>
     <row r="76">
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>1021026.687229849</v>
+        <v>1021026.670736701</v>
       </c>
     </row>
     <row r="77">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.675216345</v>
       </c>
     </row>
     <row r="78">
@@ -1525,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>1021026.677651484</v>
+        <v>1021026.659157655</v>
       </c>
     </row>
     <row r="79">
@@ -1539,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="80">
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>1021026.659157655</v>
+        <v>1021026.636777086</v>
       </c>
     </row>
     <row r="81">
@@ -1567,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>1021026.67311727</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="82">
@@ -1581,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>1021026.662915119</v>
+        <v>1021026.684490843</v>
       </c>
     </row>
     <row r="83">
@@ -1595,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>1021026.687229849</v>
+        <v>1021026.670736701</v>
       </c>
     </row>
     <row r="84">
@@ -1609,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.675216345</v>
       </c>
     </row>
     <row r="85">
@@ -1623,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>1021026.677651484</v>
+        <v>1021026.659157655</v>
       </c>
     </row>
     <row r="86">
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="87">
@@ -1651,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>1021026.659157655</v>
+        <v>1021026.636777086</v>
       </c>
     </row>
     <row r="88">
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>1021026.67311727</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="89">
@@ -1679,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>1021026.662915119</v>
+        <v>1021026.684490843</v>
       </c>
     </row>
     <row r="90">
@@ -1693,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>1021026.687229849</v>
+        <v>1021026.670736701</v>
       </c>
     </row>
     <row r="91">
@@ -1707,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.675216345</v>
       </c>
     </row>
     <row r="92">
@@ -1721,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>1021026.677651484</v>
+        <v>1021026.659157655</v>
       </c>
     </row>
     <row r="93">
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="94">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>1021026.659157655</v>
+        <v>1021026.636777086</v>
       </c>
     </row>
     <row r="95">
@@ -1763,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>1021026.67311727</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="96">
@@ -1777,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>1021026.662915119</v>
+        <v>1021026.684490843</v>
       </c>
     </row>
     <row r="97">
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>1021026.687229849</v>
+        <v>1021026.670736701</v>
       </c>
     </row>
     <row r="98">
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.675216345</v>
       </c>
     </row>
     <row r="99">
@@ -1819,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>1021026.677651484</v>
+        <v>1021026.659157655</v>
       </c>
     </row>
     <row r="100">
@@ -1833,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="101">
@@ -1847,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>1021026.659157655</v>
+        <v>1021026.636777086</v>
       </c>
     </row>
     <row r="102">
@@ -1861,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>1021026.67311727</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="103">
@@ -1875,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>1021026.662915119</v>
+        <v>1021026.684490843</v>
       </c>
     </row>
     <row r="104">
@@ -1889,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>1021026.687229849</v>
+        <v>1021026.670736701</v>
       </c>
     </row>
     <row r="105">
@@ -1903,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.675216345</v>
       </c>
     </row>
     <row r="106">
@@ -1917,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>1021026.677651484</v>
+        <v>1021026.659157655</v>
       </c>
     </row>
     <row r="107">
@@ -1931,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="108">
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>1021026.659157655</v>
+        <v>1021026.636777086</v>
       </c>
     </row>
     <row r="109">
@@ -1959,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>1021026.67311727</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="110">
@@ -1973,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>1021026.662915119</v>
+        <v>1021026.684490843</v>
       </c>
     </row>
     <row r="111">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>1021026.687229849</v>
+        <v>1021026.670736701</v>
       </c>
     </row>
     <row r="112">
@@ -2001,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.675216345</v>
       </c>
     </row>
     <row r="113">
@@ -2015,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>1021026.677651484</v>
+        <v>1021026.659157655</v>
       </c>
     </row>
     <row r="114">
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="115">
@@ -2043,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>1021026.659157655</v>
+        <v>1021026.636777086</v>
       </c>
     </row>
     <row r="116">
@@ -2057,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="D116" t="n">
-        <v>1021026.67311727</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="117">
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>1021026.662915119</v>
+        <v>1021026.684490843</v>
       </c>
     </row>
     <row r="118">
@@ -2085,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>1021026.687229849</v>
+        <v>1021026.670736701</v>
       </c>
     </row>
     <row r="119">
@@ -2099,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.675216345</v>
       </c>
     </row>
     <row r="120">
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>1021026.677651484</v>
+        <v>1021026.659157655</v>
       </c>
     </row>
     <row r="121">
@@ -2127,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="122">
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>1021026.659157655</v>
+        <v>1021026.636777086</v>
       </c>
     </row>
     <row r="123">
@@ -2155,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>1021026.67311727</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="124">
@@ -2169,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>1021026.662915119</v>
+        <v>1021026.684490843</v>
       </c>
     </row>
     <row r="125">
@@ -2183,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>1021026.687229849</v>
+        <v>1021026.670736701</v>
       </c>
     </row>
     <row r="126">
@@ -2197,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.675216345</v>
       </c>
     </row>
     <row r="127">
@@ -2211,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>1021026.677651484</v>
+        <v>1021026.659157655</v>
       </c>
     </row>
     <row r="128">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.67311727</v>
       </c>
     </row>
     <row r="129">
@@ -2239,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>1021026.659157655</v>
+        <v>1021026.636777086</v>
       </c>
     </row>
     <row r="130">
@@ -2253,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>1021026.67311727</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="131">
@@ -2267,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>1021026.662915119</v>
+        <v>1021026.684490843</v>
       </c>
     </row>
     <row r="132">
@@ -2281,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>1021026.687229849</v>
+        <v>1021026.670736701</v>
       </c>
     </row>
     <row r="133">
@@ -2295,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.675216345</v>
       </c>
     </row>
     <row r="134">
@@ -2309,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>1021026.677651484</v>
+        <v>1021026.659157655</v>
       </c>
     </row>
     <row r="135">
@@ -2323,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.675325927</v>
       </c>
     </row>
     <row r="136">
@@ -2337,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>1021026.659157655</v>
+        <v>1021026.675216344</v>
       </c>
     </row>
     <row r="137">
@@ -2351,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>1021026.67311727</v>
+        <v>1021026.675325919</v>
       </c>
     </row>
     <row r="138">
@@ -2365,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>1021026.662915119</v>
+        <v>1021026.691205611</v>
       </c>
     </row>
     <row r="139">
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>1021026.687229849</v>
+        <v>1021026.675325919</v>
       </c>
     </row>
     <row r="140">
@@ -2393,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.67895572</v>
       </c>
     </row>
     <row r="141">
@@ -2407,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>1021026.677651484</v>
+        <v>1021026.685137183</v>
       </c>
     </row>
     <row r="142">
@@ -2421,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.680858093</v>
       </c>
     </row>
     <row r="143">
@@ -2435,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>1021026.659157655</v>
+        <v>1021026.669653944</v>
       </c>
     </row>
     <row r="144">
@@ -2449,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>1021026.67311727</v>
+        <v>1021026.685004367</v>
       </c>
     </row>
     <row r="145">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>1021026.662915119</v>
+        <v>1021026.687943931</v>
       </c>
     </row>
     <row r="146">
@@ -2477,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>1021026.687229849</v>
+        <v>1021026.687943931</v>
       </c>
     </row>
     <row r="147">
@@ -2491,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.688963982</v>
       </c>
     </row>
     <row r="148">
@@ -2505,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>1021026.677651484</v>
+        <v>1021026.684391291</v>
       </c>
     </row>
     <row r="149">
@@ -2519,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>1021026.685004374</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="150">
@@ -2533,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>1021026.672685405</v>
+        <v>1021026.659157655</v>
       </c>
     </row>
     <row r="151">
@@ -2547,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>1021026.688963982</v>
+        <v>1021026.688963983</v>
       </c>
     </row>
   </sheetData>
